--- a/solution_dates.xlsx
+++ b/solution_dates.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Solution Dates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Solution Dates" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2737,6 +2737,114 @@
         </is>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>administrativeproblems</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>babynames</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>bst</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>caching</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>continuousmedian</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>cookieselection</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>doctorkattis</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>kattissquest</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>orphanbackups</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/solution_dates.xlsx
+++ b/solution_dates.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2845,6 +2845,54 @@
         </is>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>cakeymccakeface</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>opensource</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>raceday</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>srednji</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/solution_dates.xlsx
+++ b/solution_dates.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,6 +2893,18 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>abinitio</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/solution_dates.xlsx
+++ b/solution_dates.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2905,6 +2905,498 @@
         </is>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>almostunionfind</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>alphabetanimals</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>chopwood</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>fenwick</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>forests</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>more10</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>moviecollection</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>railroad</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>supercomputer</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>turbo</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>unionfind</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>virtualfriends</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>worstweather</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>committeeassignment</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>dictionaryattack</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>diversecontest</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>expeditiouscubing</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>firefly</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>foolingaround</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>jumpingyoshi</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>pie</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>sendmoremoney</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>taxing</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>paintings</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>anti11</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>aspenavenue</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>bobby</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>brevoptimering</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>busticket</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>checkingforcorrectness</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>classrooms</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>drinkresponsibly</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>inflagrantedelicto</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>linearrecurrence</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>minimumscalar</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>nesteddolls</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ntnuorienteering</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>sellingspatulas</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>silverstarstandsalone</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ticketpricing</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>watersheds</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/solution_dates.xlsx
+++ b/solution_dates.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B248"/>
+  <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3397,6 +3397,114 @@
         </is>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ballotboxes</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>canonical</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>exam</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>frustratedqueue</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>planetaris</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>scenes</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>zapis</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/solution_dates.xlsx
+++ b/solution_dates.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2905,6 +2905,606 @@
         </is>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>almostunionfind</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>alphabetanimals</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>chopwood</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>fenwick</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>forests</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>more10</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>moviecollection</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>railroad</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>supercomputer</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>turbo</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>unionfind</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>virtualfriends</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>worstweather</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>committeeassignment</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>dictionaryattack</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>diversecontest</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>expeditiouscubing</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>firefly</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>foolingaround</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>jumpingyoshi</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>pie</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>sendmoremoney</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>taxing</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>paintings</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>anti11</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>aspenavenue</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>bobby</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>brevoptimering</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>busticket</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>checkingforcorrectness</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>classrooms</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>drinkresponsibly</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>inflagrantedelicto</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>linearrecurrence</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>minimumscalar</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>nesteddolls</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ntnuorienteering</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>sellingspatulas</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>silverstarstandsalone</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ticketpricing</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>watersheds</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ballotboxes</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>canonical</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>exam</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>frustratedqueue</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>planetaris</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>scenes</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>zapis</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/solution_dates.xlsx
+++ b/solution_dates.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B257"/>
+  <dimension ref="A1:B264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3505,6 +3505,90 @@
         </is>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>amanda</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>listentoyourboss</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>246greaaat</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>battleofhogwarts</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>hauntedgraveyard</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>passingsecrets</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>treasure</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/solution_dates.xlsx
+++ b/solution_dates.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B264"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3589,6 +3589,186 @@
         </is>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>darkness</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>floodingfields</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>gamesuggestions</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>standings</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>tomography</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>unfairplay</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>dutyscheduler</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ragingriver</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>cantor</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>golf</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>janeeyre</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>juggler</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>sabor</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>toys</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>wheresmyinternet</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/solution_dates.xlsx
+++ b/solution_dates.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3769,6 +3769,210 @@
         </is>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>bigtruck</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>bestrational</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>chemistsvows</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>debugging</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>gopher2</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>horrorfilmnight</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>jurassicjigsaw</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>kitchencombinatorics</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>knightjump</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>pebblesolitaire2</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>powers</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>redsocks</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>secretchamber</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>spider</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>unusualdarts</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>wheels</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
